--- a/Documents/DocsApp - Automation Test Cases.xlsx
+++ b/Documents/DocsApp - Automation Test Cases.xlsx
@@ -649,7 +649,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
